--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H2">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>0.03735856144222223</v>
+        <v>0.002569175681777778</v>
       </c>
       <c r="R2">
-        <v>0.3362270529800001</v>
+        <v>0.023122581136</v>
       </c>
       <c r="S2">
-        <v>0.06803956387383189</v>
+        <v>0.005189142871638648</v>
       </c>
       <c r="T2">
-        <v>0.06803956387383189</v>
+        <v>0.005189142871638651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H3">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>0.05244987720933333</v>
+        <v>0.01713247136533333</v>
       </c>
       <c r="R3">
-        <v>0.472048894884</v>
+        <v>0.154192242288</v>
       </c>
       <c r="S3">
-        <v>0.09552473737722161</v>
+        <v>0.0346036443866132</v>
       </c>
       <c r="T3">
-        <v>0.09552473737722159</v>
+        <v>0.03460364438661322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H4">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>0.02435978173844444</v>
+        <v>0.01147913184088889</v>
       </c>
       <c r="R4">
-        <v>0.219238035646</v>
+        <v>0.103312186568</v>
       </c>
       <c r="S4">
-        <v>0.04436543757469974</v>
+        <v>0.02318520122513797</v>
       </c>
       <c r="T4">
-        <v>0.04436543757469973</v>
+        <v>0.02318520122513798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.151954</v>
       </c>
       <c r="I5">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J5">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>0.06293411282888889</v>
+        <v>0.01324994982177778</v>
       </c>
       <c r="R5">
-        <v>0.5664070154600001</v>
+        <v>0.119249548396</v>
       </c>
       <c r="S5">
-        <v>0.1146192311576711</v>
+        <v>0.02676184550356297</v>
       </c>
       <c r="T5">
-        <v>0.1146192311576711</v>
+        <v>0.02676184550356298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.151954</v>
       </c>
       <c r="I6">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J6">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
         <v>0.08835689498533333</v>
       </c>
       <c r="R6">
-        <v>0.795212054868</v>
+        <v>0.7952120548680002</v>
       </c>
       <c r="S6">
-        <v>0.1609206663202405</v>
+        <v>0.1784605681212131</v>
       </c>
       <c r="T6">
-        <v>0.1609206663202404</v>
+        <v>0.1784605681212132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.151954</v>
       </c>
       <c r="I7">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J7">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>0.04103641021577778</v>
+        <v>0.05920105891088889</v>
       </c>
       <c r="R7">
-        <v>0.369327691942</v>
+        <v>0.532809530198</v>
       </c>
       <c r="S7">
-        <v>0.07473787389665333</v>
+        <v>0.1195724975211993</v>
       </c>
       <c r="T7">
-        <v>0.0747378738966533</v>
+        <v>0.1195724975211993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H8">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I8">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J8">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>0.07937648538444445</v>
+        <v>0.02497569414133334</v>
       </c>
       <c r="R8">
-        <v>0.7143883684600001</v>
+        <v>0.224781247272</v>
       </c>
       <c r="S8">
-        <v>0.1445650271022303</v>
+        <v>0.05044514710961563</v>
       </c>
       <c r="T8">
-        <v>0.1445650271022303</v>
+        <v>0.05044514710961565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H9">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I9">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J9">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>0.1114413069186666</v>
+        <v>0.166549671064</v>
       </c>
       <c r="R9">
-        <v>1.002971762268</v>
+        <v>1.498947039576</v>
       </c>
       <c r="S9">
-        <v>0.2029633269472299</v>
+        <v>0.3363919581309003</v>
       </c>
       <c r="T9">
-        <v>0.2029633269472298</v>
+        <v>0.3363919581309004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H10">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I10">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J10">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>0.05175771722688888</v>
+        <v>0.1115919350706667</v>
       </c>
       <c r="R10">
-        <v>0.465819455042</v>
+        <v>1.004327415636</v>
       </c>
       <c r="S10">
-        <v>0.09426413575022176</v>
+        <v>0.2253899951301188</v>
       </c>
       <c r="T10">
-        <v>0.09426413575022173</v>
+        <v>0.2253899951301189</v>
       </c>
     </row>
   </sheetData>
